--- a/Individual documents/Johan Larsson/TIDSLOGG DATX02-15-29 Johan Larsson.xlsx
+++ b/Individual documents/Johan Larsson/TIDSLOGG DATX02-15-29 Johan Larsson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>DATUM</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Research, project plan report</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Project plan report</t>
+  </si>
+  <si>
+    <t>Meeting, code example</t>
+  </si>
+  <si>
+    <t>Planning report, research</t>
+  </si>
+  <si>
+    <t>Workshop, research</t>
+  </si>
+  <si>
+    <t>Research (compilers)</t>
+  </si>
+  <si>
+    <t>Group journal, log, research</t>
+  </si>
+  <si>
+    <t>Meeting etc</t>
   </si>
 </sst>
 </file>
@@ -105,12 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -407,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +493,7 @@
       </c>
       <c r="G4" s="1">
         <f>SUM(C4:C100)</f>
-        <v>33</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -586,6 +613,116 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="2">
+        <v>42037</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="2">
+        <v>42038</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2">
+        <v>42039</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2">
+        <v>42040</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2">
+        <v>42041</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2">
+        <v>42042</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2">
+        <v>42043</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2">
+        <v>42044</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2">
+        <v>42045</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2">
+        <v>42046</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Individual documents/Johan Larsson/TIDSLOGG DATX02-15-29 Johan Larsson.xlsx
+++ b/Individual documents/Johan Larsson/TIDSLOGG DATX02-15-29 Johan Larsson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>DATUM</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>Meeting etc</t>
+  </si>
+  <si>
+    <t>Group log, personal log</t>
+  </si>
+  <si>
+    <t>Logs, research</t>
+  </si>
+  <si>
+    <t>Meeting, research</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Research, coding, logs</t>
   </si>
 </sst>
 </file>
@@ -434,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -493,7 +508,7 @@
       </c>
       <c r="G4" s="1">
         <f>SUM(C4:C100)</f>
-        <v>62.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -723,6 +738,160 @@
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2">
+        <v>42048</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2">
+        <v>42050</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2">
+        <v>42052</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2">
+        <v>42053</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2">
+        <v>42054</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2">
+        <v>42055</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2">
+        <v>42057</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2">
+        <v>42058</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2">
+        <v>42059</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2">
+        <v>42060</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2">
+        <v>42061</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2">
+        <v>42062</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2">
+        <v>42063</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
